--- a/PageSpeed.xlsx
+++ b/PageSpeed.xlsx
@@ -3717,12 +3717,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000"/>
+        <fgColor rgb="008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008000"/>
+        <fgColor rgb="FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -4304,13 +4304,28 @@
       <c r="G3" s="20">
         <v>59</v>
       </c>
+      <c r="H3" s="21">
+        <v>86</v>
+      </c>
+      <c r="I3" s="21">
+        <v>87</v>
+      </c>
+      <c r="J3" s="21">
+        <v>86</v>
+      </c>
+      <c r="K3" s="22">
+        <v>90</v>
+      </c>
+      <c r="L3" s="23">
+        <v>59</v>
+      </c>
       <c r="M3" s="21">
         <v>83</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="23">
         <v>68</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="23">
         <v>14.69</v>
       </c>
       <c r="P3" s="21">
@@ -4319,7 +4334,7 @@
       <c r="Q3" s="21">
         <v>2.58</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="23">
         <v>119</v>
       </c>
     </row>
@@ -4348,11 +4363,11 @@
       <c r="N4" s="21">
         <v>72</v>
       </c>
-      <c r="O4" s="23">
-        <v>3.88</v>
-      </c>
-      <c r="P4" s="23">
-        <v>2.93</v>
+      <c r="O4" s="22">
+        <v>3.91</v>
+      </c>
+      <c r="P4" s="22">
+        <v>2.98</v>
       </c>
       <c r="Q4" s="21">
         <v>1.51</v>

--- a/PageSpeed.xlsx
+++ b/PageSpeed.xlsx
@@ -4355,6 +4355,21 @@
         <v>86</v>
       </c>
       <c r="G4" s="20">
+        <v>59</v>
+      </c>
+      <c r="H4" s="21">
+        <v>72</v>
+      </c>
+      <c r="I4" s="21">
+        <v>87</v>
+      </c>
+      <c r="J4" s="22">
+        <v>93</v>
+      </c>
+      <c r="K4" s="22">
+        <v>90</v>
+      </c>
+      <c r="L4" s="23">
         <v>59</v>
       </c>
       <c r="M4" s="21">
